--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/73025_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/73025_SUMMARY.xlsx
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -2737,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/73025_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/73025_SUMMARY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Number of Mitophagy Events Outside Dialated Area</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Surface Area of Donut</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Surface Area of Cytoplasm without Donut</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +488,12 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>1826</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11979</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +513,12 @@
       <c r="E3" t="n">
         <v>7</v>
       </c>
+      <c r="F3" t="n">
+        <v>3201</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22636</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +538,12 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31938</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +563,12 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19443</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +588,12 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23925</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +613,12 @@
       <c r="E7" t="n">
         <v>4</v>
       </c>
+      <c r="F7" t="n">
+        <v>6901</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26059</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +638,12 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>1237</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40702</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +663,12 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>1430</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20530</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +688,12 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8716</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +713,12 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>2209</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12666</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +738,12 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>1127</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36632</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +763,12 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>5565</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32634</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +788,12 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23313</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +813,12 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8031</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +838,12 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>618</v>
+      </c>
+      <c r="G16" t="n">
+        <v>27900</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -763,6 +863,12 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>39017</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -782,6 +888,12 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>2041</v>
+      </c>
+      <c r="G18" t="n">
+        <v>23585</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -801,6 +913,12 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
+      <c r="F19" t="n">
+        <v>3027</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22976</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -820,6 +938,12 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>10930</v>
+      </c>
+      <c r="G20" t="n">
+        <v>43618</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -839,6 +963,12 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9378</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -858,6 +988,12 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20011</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -877,6 +1013,12 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16918</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -896,6 +1038,12 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>33961</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -915,6 +1063,12 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
+      <c r="F25" t="n">
+        <v>4093</v>
+      </c>
+      <c r="G25" t="n">
+        <v>40918</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,6 +1088,12 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9496</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -953,6 +1113,12 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>19287</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -972,6 +1138,12 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5086</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -991,6 +1163,12 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>17700</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1010,6 +1188,12 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
+      <c r="F30" t="n">
+        <v>876</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9647</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1029,6 +1213,12 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2733</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1048,6 +1238,12 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30596</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1067,6 +1263,12 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
+      <c r="F33" t="n">
+        <v>903</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31667</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1086,6 +1288,12 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
+      <c r="F34" t="n">
+        <v>1921</v>
+      </c>
+      <c r="G34" t="n">
+        <v>29854</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1105,6 +1313,12 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>17697</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1124,6 +1338,12 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>15533</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1143,6 +1363,12 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
+      <c r="F37" t="n">
+        <v>1396</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5407</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1162,6 +1388,12 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
+      <c r="F38" t="n">
+        <v>2530</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36379</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1181,6 +1413,12 @@
       <c r="E39" t="n">
         <v>2</v>
       </c>
+      <c r="F39" t="n">
+        <v>4519</v>
+      </c>
+      <c r="G39" t="n">
+        <v>52949</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1200,6 +1438,12 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20329</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1219,6 +1463,12 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12130</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1238,6 +1488,12 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>23267</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1257,6 +1513,12 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13680</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1276,6 +1538,12 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>24446</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1295,6 +1563,12 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
+      <c r="F45" t="n">
+        <v>1202</v>
+      </c>
+      <c r="G45" t="n">
+        <v>43409</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1314,6 +1588,12 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10959</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1333,6 +1613,12 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
+      <c r="F47" t="n">
+        <v>1308</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25961</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1352,6 +1638,12 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
+      <c r="F48" t="n">
+        <v>804</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13779</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,6 +1663,12 @@
       <c r="E49" t="n">
         <v>8</v>
       </c>
+      <c r="F49" t="n">
+        <v>3114</v>
+      </c>
+      <c r="G49" t="n">
+        <v>43310</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1390,6 +1688,12 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
+      <c r="F50" t="n">
+        <v>3839</v>
+      </c>
+      <c r="G50" t="n">
+        <v>21399</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1409,6 +1713,12 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25498</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1428,6 +1738,12 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
+      <c r="F52" t="n">
+        <v>1185</v>
+      </c>
+      <c r="G52" t="n">
+        <v>26982</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1447,6 +1763,12 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
+      <c r="F53" t="n">
+        <v>1727</v>
+      </c>
+      <c r="G53" t="n">
+        <v>39513</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1466,6 +1788,12 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>19333</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1485,6 +1813,12 @@
       <c r="E55" t="n">
         <v>4</v>
       </c>
+      <c r="F55" t="n">
+        <v>1189</v>
+      </c>
+      <c r="G55" t="n">
+        <v>28989</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1504,6 +1838,12 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>30250</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1523,6 +1863,12 @@
       <c r="E57" t="n">
         <v>0</v>
       </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4342</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1542,6 +1888,12 @@
       <c r="E58" t="n">
         <v>2</v>
       </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7292</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1561,6 +1913,12 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
+      <c r="F59" t="n">
+        <v>103</v>
+      </c>
+      <c r="G59" t="n">
+        <v>14126</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1580,6 +1938,12 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
+      <c r="F60" t="n">
+        <v>2332</v>
+      </c>
+      <c r="G60" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1599,6 +1963,12 @@
       <c r="E61" t="n">
         <v>0</v>
       </c>
+      <c r="F61" t="n">
+        <v>522</v>
+      </c>
+      <c r="G61" t="n">
+        <v>15280</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1618,6 +1988,12 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
+      <c r="F62" t="n">
+        <v>2034</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1637,6 +2013,12 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>15809</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1656,6 +2038,12 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
+      <c r="F64" t="n">
+        <v>1180</v>
+      </c>
+      <c r="G64" t="n">
+        <v>13357</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1675,6 +2063,12 @@
       <c r="E65" t="n">
         <v>0</v>
       </c>
+      <c r="F65" t="n">
+        <v>3139</v>
+      </c>
+      <c r="G65" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1694,6 +2088,12 @@
       <c r="E66" t="n">
         <v>0</v>
       </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>32156</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1713,6 +2113,12 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
+      <c r="F67" t="n">
+        <v>1516</v>
+      </c>
+      <c r="G67" t="n">
+        <v>19122</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1732,6 +2138,12 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10155</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1751,6 +2163,12 @@
       <c r="E69" t="n">
         <v>1</v>
       </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>29261</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1770,6 +2188,12 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
+      <c r="F70" t="n">
+        <v>3116</v>
+      </c>
+      <c r="G70" t="n">
+        <v>30261</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1789,6 +2213,12 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>16133</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1808,6 +2238,12 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>14366</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1827,6 +2263,12 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>14414</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1846,6 +2288,12 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>26202</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1865,6 +2313,12 @@
       <c r="E75" t="n">
         <v>7</v>
       </c>
+      <c r="F75" t="n">
+        <v>2818</v>
+      </c>
+      <c r="G75" t="n">
+        <v>28711</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1884,6 +2338,12 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15796</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1903,6 +2363,12 @@
       <c r="E77" t="n">
         <v>0</v>
       </c>
+      <c r="F77" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G77" t="n">
+        <v>23800</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1922,6 +2388,12 @@
       <c r="E78" t="n">
         <v>0</v>
       </c>
+      <c r="F78" t="n">
+        <v>421</v>
+      </c>
+      <c r="G78" t="n">
+        <v>17837</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1941,6 +2413,12 @@
       <c r="E79" t="n">
         <v>2</v>
       </c>
+      <c r="F79" t="n">
+        <v>6998</v>
+      </c>
+      <c r="G79" t="n">
+        <v>17295</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1960,6 +2438,12 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
+      <c r="F80" t="n">
+        <v>961</v>
+      </c>
+      <c r="G80" t="n">
+        <v>15572</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1979,6 +2463,12 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>18362</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1998,6 +2488,12 @@
       <c r="E82" t="n">
         <v>0</v>
       </c>
+      <c r="F82" t="n">
+        <v>6144</v>
+      </c>
+      <c r="G82" t="n">
+        <v>21116</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2017,6 +2513,12 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>23769</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2036,6 +2538,12 @@
       <c r="E84" t="n">
         <v>0</v>
       </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6439</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2055,6 +2563,12 @@
       <c r="E85" t="n">
         <v>0</v>
       </c>
+      <c r="F85" t="n">
+        <v>1868</v>
+      </c>
+      <c r="G85" t="n">
+        <v>18701</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2074,6 +2588,12 @@
       <c r="E86" t="n">
         <v>6</v>
       </c>
+      <c r="F86" t="n">
+        <v>2048</v>
+      </c>
+      <c r="G86" t="n">
+        <v>49131</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2093,6 +2613,12 @@
       <c r="E87" t="n">
         <v>0</v>
       </c>
+      <c r="F87" t="n">
+        <v>396</v>
+      </c>
+      <c r="G87" t="n">
+        <v>50468</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2112,6 +2638,12 @@
       <c r="E88" t="n">
         <v>0</v>
       </c>
+      <c r="F88" t="n">
+        <v>1098</v>
+      </c>
+      <c r="G88" t="n">
+        <v>13768</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2131,6 +2663,12 @@
       <c r="E89" t="n">
         <v>0</v>
       </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4770</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2150,6 +2688,12 @@
       <c r="E90" t="n">
         <v>0</v>
       </c>
+      <c r="F90" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G90" t="n">
+        <v>23613</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2169,6 +2713,12 @@
       <c r="E91" t="n">
         <v>0</v>
       </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>9134</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2188,6 +2738,12 @@
       <c r="E92" t="n">
         <v>0</v>
       </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>15188</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2207,6 +2763,12 @@
       <c r="E93" t="n">
         <v>0</v>
       </c>
+      <c r="F93" t="n">
+        <v>2977</v>
+      </c>
+      <c r="G93" t="n">
+        <v>38137</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2226,6 +2788,12 @@
       <c r="E94" t="n">
         <v>0</v>
       </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>29597</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2245,6 +2813,12 @@
       <c r="E95" t="n">
         <v>0</v>
       </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>19984</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2264,6 +2838,12 @@
       <c r="E96" t="n">
         <v>0</v>
       </c>
+      <c r="F96" t="n">
+        <v>50</v>
+      </c>
+      <c r="G96" t="n">
+        <v>27073</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2283,6 +2863,12 @@
       <c r="E97" t="n">
         <v>0</v>
       </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>10616</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2302,6 +2888,12 @@
       <c r="E98" t="n">
         <v>0</v>
       </c>
+      <c r="F98" t="n">
+        <v>3662</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20733</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2321,6 +2913,12 @@
       <c r="E99" t="n">
         <v>1</v>
       </c>
+      <c r="F99" t="n">
+        <v>3424</v>
+      </c>
+      <c r="G99" t="n">
+        <v>55148</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2340,6 +2938,12 @@
       <c r="E100" t="n">
         <v>0</v>
       </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>28560</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2359,6 +2963,12 @@
       <c r="E101" t="n">
         <v>1</v>
       </c>
+      <c r="F101" t="n">
+        <v>3014</v>
+      </c>
+      <c r="G101" t="n">
+        <v>19125</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2378,6 +2988,12 @@
       <c r="E102" t="n">
         <v>0</v>
       </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>14234</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2397,6 +3013,12 @@
       <c r="E103" t="n">
         <v>0</v>
       </c>
+      <c r="F103" t="n">
+        <v>729</v>
+      </c>
+      <c r="G103" t="n">
+        <v>15453</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2416,6 +3038,12 @@
       <c r="E104" t="n">
         <v>0</v>
       </c>
+      <c r="F104" t="n">
+        <v>5786</v>
+      </c>
+      <c r="G104" t="n">
+        <v>25693</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2435,6 +3063,12 @@
       <c r="E105" t="n">
         <v>6</v>
       </c>
+      <c r="F105" t="n">
+        <v>5663</v>
+      </c>
+      <c r="G105" t="n">
+        <v>42810</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2454,6 +3088,12 @@
       <c r="E106" t="n">
         <v>0</v>
       </c>
+      <c r="F106" t="n">
+        <v>539</v>
+      </c>
+      <c r="G106" t="n">
+        <v>18568</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2473,6 +3113,12 @@
       <c r="E107" t="n">
         <v>0</v>
       </c>
+      <c r="F107" t="n">
+        <v>1520</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26113</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2492,6 +3138,12 @@
       <c r="E108" t="n">
         <v>0</v>
       </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6675</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2511,6 +3163,12 @@
       <c r="E109" t="n">
         <v>0</v>
       </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>30277</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2530,6 +3188,12 @@
       <c r="E110" t="n">
         <v>0</v>
       </c>
+      <c r="F110" t="n">
+        <v>1368</v>
+      </c>
+      <c r="G110" t="n">
+        <v>26785</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2549,6 +3213,12 @@
       <c r="E111" t="n">
         <v>3</v>
       </c>
+      <c r="F111" t="n">
+        <v>4645</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12721</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2568,6 +3238,12 @@
       <c r="E112" t="n">
         <v>0</v>
       </c>
+      <c r="F112" t="n">
+        <v>2527</v>
+      </c>
+      <c r="G112" t="n">
+        <v>13828</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2587,6 +3263,12 @@
       <c r="E113" t="n">
         <v>0</v>
       </c>
+      <c r="F113" t="n">
+        <v>1324</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1686</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2606,6 +3288,12 @@
       <c r="E114" t="n">
         <v>0</v>
       </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3582</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2625,6 +3313,12 @@
       <c r="E115" t="n">
         <v>0</v>
       </c>
+      <c r="F115" t="n">
+        <v>662</v>
+      </c>
+      <c r="G115" t="n">
+        <v>13690</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2644,6 +3338,12 @@
       <c r="E116" t="n">
         <v>0</v>
       </c>
+      <c r="F116" t="n">
+        <v>675</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12437</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2663,6 +3363,12 @@
       <c r="E117" t="n">
         <v>0</v>
       </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>31131</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2682,6 +3388,12 @@
       <c r="E118" t="n">
         <v>0</v>
       </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6964</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2701,6 +3413,12 @@
       <c r="E119" t="n">
         <v>0</v>
       </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>13423</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2720,6 +3438,12 @@
       <c r="E120" t="n">
         <v>0</v>
       </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>13986</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2739,6 +3463,12 @@
       <c r="E121" t="n">
         <v>2</v>
       </c>
+      <c r="F121" t="n">
+        <v>5393</v>
+      </c>
+      <c r="G121" t="n">
+        <v>10649</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2758,6 +3488,12 @@
       <c r="E122" t="n">
         <v>0</v>
       </c>
+      <c r="F122" t="n">
+        <v>1982</v>
+      </c>
+      <c r="G122" t="n">
+        <v>17440</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2777,6 +3513,12 @@
       <c r="E123" t="n">
         <v>6</v>
       </c>
+      <c r="F123" t="n">
+        <v>1238</v>
+      </c>
+      <c r="G123" t="n">
+        <v>19314</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2796,6 +3538,12 @@
       <c r="E124" t="n">
         <v>0</v>
       </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>24062</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2815,6 +3563,12 @@
       <c r="E125" t="n">
         <v>0</v>
       </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>13513</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2834,6 +3588,12 @@
       <c r="E126" t="n">
         <v>0</v>
       </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>31131</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2853,6 +3613,12 @@
       <c r="E127" t="n">
         <v>0</v>
       </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4536</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2872,6 +3638,12 @@
       <c r="E128" t="n">
         <v>0</v>
       </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>9146</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2891,6 +3663,12 @@
       <c r="E129" t="n">
         <v>0</v>
       </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>36566</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2910,6 +3688,12 @@
       <c r="E130" t="n">
         <v>0</v>
       </c>
+      <c r="F130" t="n">
+        <v>2708</v>
+      </c>
+      <c r="G130" t="n">
+        <v>14597</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2928,6 +3712,12 @@
       </c>
       <c r="E131" t="n">
         <v>4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7725</v>
+      </c>
+      <c r="G131" t="n">
+        <v>59150</v>
       </c>
     </row>
   </sheetData>
